--- a/testlook.xlsx
+++ b/testlook.xlsx
@@ -97,7 +97,7 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>http://cdm.unfccc.int/</t>
+    <t>https://cdm.unfccc.int/Projects/Validation/DB/B90WLUX8QKF2591LN21LEVJ82HOO75/view.html</t>
   </si>
   <si>
     <t>LGAI</t>
